--- a/biology/Microbiologie/Oxymonadida/Oxymonadida.xlsx
+++ b/biology/Microbiologie/Oxymonadida/Oxymonadida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les oxymonades (ou oxymonadines) sont des êtres vivants unicellulaires pourvus d'un noyau. Ils ne possèdent ni mitochondrie, ni plaste, ni appareil de Golgi, par pertes secondaires. Ils sont symbiotes ou commensaux de vertébrés (crapauds, cobayes, lézards), et d'insectes xylophages comme les termites.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trimastigida
 Trimastigidae
@@ -548,7 +562,9 @@
           <t>À lire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Classification phylogénétique du vivant par Guillaume Lecointre et Hervé Le Guyader aux éditions Belin
  Portail de la microbiologie                     </t>
